--- a/South_Korea_cases.xlsx
+++ b/South_Korea_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Dropbox\Covid_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC507B-EE23-49F4-BC4D-26E9A45BB6C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532BA9E7-216B-42C4-A3D8-D4E8C6D3696E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{5FA49FFB-F54A-47B5-872F-DB78145B2DE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5FA49FFB-F54A-47B5-872F-DB78145B2DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">Total Cases in South Korea </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -411,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C36A1F7-A03F-4C3C-B13F-8518377CE229}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,498 +421,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="A4" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43876</v>
+        <v>43880</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43878</v>
+        <v>43882</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43879</v>
+        <v>43883</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43880</v>
+        <v>43884</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43881</v>
+        <v>43885</v>
       </c>
       <c r="B10">
-        <v>111</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43882</v>
+        <v>43886</v>
       </c>
       <c r="B11">
-        <v>209</v>
+        <v>977</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43883</v>
+        <v>43887</v>
       </c>
       <c r="B12">
-        <v>436</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43884</v>
+        <v>43888</v>
       </c>
       <c r="B13">
-        <v>602</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43885</v>
+        <v>43889</v>
       </c>
       <c r="B14">
-        <v>833</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43886</v>
+        <v>43890</v>
       </c>
       <c r="B15">
-        <v>977</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43887</v>
+        <v>43891</v>
       </c>
       <c r="B16">
-        <v>1261</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43888</v>
+        <v>43892</v>
       </c>
       <c r="B17">
-        <v>1766</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="B18">
-        <v>2337</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43890</v>
+        <v>43894</v>
       </c>
       <c r="B19">
-        <v>3150</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43891</v>
+        <v>43895</v>
       </c>
       <c r="B20">
-        <v>3736</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43892</v>
+        <v>43896</v>
       </c>
       <c r="B21">
-        <v>4335</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43893</v>
+        <v>43897</v>
       </c>
       <c r="B22">
-        <v>5186</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43894</v>
+        <v>43898</v>
       </c>
       <c r="B23">
-        <v>5621</v>
+        <v>7313</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43895</v>
+        <v>43899</v>
       </c>
       <c r="B24">
-        <v>6284</v>
+        <v>7478</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43896</v>
+        <v>43900</v>
       </c>
       <c r="B25">
-        <v>6593</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43897</v>
+        <v>43901</v>
       </c>
       <c r="B26">
-        <v>7041</v>
+        <v>7755</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43898</v>
+        <v>43902</v>
       </c>
       <c r="B27">
-        <v>7313</v>
+        <v>7869</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43899</v>
+        <v>43903</v>
       </c>
       <c r="B28">
-        <v>7478</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43900</v>
+        <v>43904</v>
       </c>
       <c r="B29">
-        <v>7513</v>
+        <v>8086</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43901</v>
+        <v>43905</v>
       </c>
       <c r="B30">
-        <v>7755</v>
+        <v>8162</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43902</v>
+        <v>43906</v>
       </c>
       <c r="B31">
-        <v>7869</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43903</v>
+        <v>43907</v>
       </c>
       <c r="B32">
-        <v>7979</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="B33">
-        <v>8086</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43905</v>
+        <v>43909</v>
       </c>
       <c r="B34">
-        <v>8162</v>
+        <v>8565</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="B35">
-        <v>8236</v>
+        <v>8652</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43907</v>
+        <v>43911</v>
       </c>
       <c r="B36">
-        <v>8320</v>
+        <v>8799</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43908</v>
+        <v>43912</v>
       </c>
       <c r="B37">
-        <v>8413</v>
+        <v>8897</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B38">
-        <v>8565</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="B39">
-        <v>8652</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43911</v>
+        <v>43915</v>
       </c>
       <c r="B40">
-        <v>8799</v>
+        <v>9137</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43912</v>
+        <v>43916</v>
       </c>
       <c r="B41">
-        <v>8897</v>
+        <v>9241</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43913</v>
+        <v>43917</v>
       </c>
       <c r="B42">
-        <v>8961</v>
+        <v>9332</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43914</v>
+        <v>43918</v>
       </c>
       <c r="B43">
-        <v>9037</v>
+        <v>9478</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43915</v>
+        <v>43919</v>
       </c>
       <c r="B44">
-        <v>9137</v>
+        <v>9583</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B45">
-        <v>9241</v>
+        <v>9661</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43917</v>
+        <v>43921</v>
       </c>
       <c r="B46">
-        <v>9332</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43918</v>
+        <v>43922</v>
       </c>
       <c r="B47">
-        <v>9478</v>
+        <v>9887</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43919</v>
+        <v>43923</v>
       </c>
       <c r="B48">
-        <v>9583</v>
+        <v>9976</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43920</v>
+        <v>43924</v>
       </c>
       <c r="B49">
-        <v>9661</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43921</v>
+        <v>43925</v>
       </c>
       <c r="B50">
-        <v>9786</v>
+        <v>10156</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43922</v>
+        <v>43926</v>
       </c>
       <c r="B51">
-        <v>9887</v>
+        <v>10237</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="B52">
-        <v>9976</v>
+        <v>10284</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43924</v>
+        <v>43928</v>
       </c>
       <c r="B53">
-        <v>10062</v>
+        <v>10331</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43925</v>
+        <v>43929</v>
       </c>
       <c r="B54">
-        <v>10156</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43926</v>
+        <v>43930</v>
       </c>
       <c r="B55">
-        <v>10237</v>
+        <v>10423</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43927</v>
+        <v>43931</v>
       </c>
       <c r="B56">
-        <v>10284</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B57">
-        <v>10331</v>
+        <v>43932</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43929</v>
-      </c>
-      <c r="B58">
-        <v>10384</v>
+        <v>43933</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B59">
-        <v>10423</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B60">
-        <v>10450</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43932</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43933</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43934</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43935</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>43936</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>43937</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
         <v>43938</v>
       </c>
     </row>
@@ -941,15 +925,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1434,15 +1418,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1939,15 +1923,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA5DA9A-5620-47B3-9749-F3EC9A4B15B4}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -2444,15 +2428,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/South_Korea_cases.xlsx
+++ b/South_Korea_cases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Dropbox\Covid_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532BA9E7-216B-42C4-A3D8-D4E8C6D3696E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0399A40-FFBC-4C6F-953D-DDC21A42CC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5FA49FFB-F54A-47B5-872F-DB78145B2DE6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Totalcases" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -57,15 +57,24 @@
   <si>
     <t>No. of cases</t>
   </si>
+  <si>
+    <t>Totalcases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -408,502 +417,693 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C36A1F7-A03F-4C3C-B13F-8518377CE229}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43876</v>
       </c>
       <c r="B1">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43877</v>
       </c>
       <c r="B2">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43878</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43879</v>
       </c>
       <c r="B4">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43880</v>
       </c>
       <c r="B5">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43881</v>
       </c>
       <c r="B6">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43882</v>
       </c>
       <c r="B7">
         <v>209</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43883</v>
       </c>
       <c r="B8">
         <v>436</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43884</v>
       </c>
       <c r="B9">
         <v>602</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43885</v>
       </c>
       <c r="B10">
         <v>833</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43886</v>
       </c>
       <c r="B11">
         <v>977</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43887</v>
       </c>
       <c r="B12">
         <v>1261</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43888</v>
       </c>
       <c r="B13">
         <v>1766</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43889</v>
       </c>
       <c r="B14">
         <v>2337</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43890</v>
       </c>
       <c r="B15">
         <v>3150</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43891</v>
       </c>
       <c r="B16">
         <v>3736</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43892</v>
       </c>
       <c r="B17">
         <v>4335</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43893</v>
       </c>
       <c r="B18">
         <v>5186</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43894</v>
       </c>
       <c r="B19">
         <v>5621</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43895</v>
       </c>
       <c r="B20">
         <v>6284</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43896</v>
       </c>
       <c r="B21">
         <v>6593</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43897</v>
       </c>
       <c r="B22">
         <v>7041</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43898</v>
       </c>
       <c r="B23">
         <v>7313</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43899</v>
       </c>
       <c r="B24">
         <v>7478</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43900</v>
       </c>
       <c r="B25">
         <v>7513</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43901</v>
       </c>
       <c r="B26">
         <v>7755</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43902</v>
       </c>
       <c r="B27">
         <v>7869</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43903</v>
       </c>
       <c r="B28">
         <v>7979</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43904</v>
       </c>
       <c r="B29">
         <v>8086</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43905</v>
       </c>
       <c r="B30">
         <v>8162</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43906</v>
       </c>
       <c r="B31">
         <v>8236</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43907</v>
       </c>
       <c r="B32">
         <v>8320</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43908</v>
       </c>
       <c r="B33">
         <v>8413</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43909</v>
       </c>
       <c r="B34">
         <v>8565</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43910</v>
       </c>
       <c r="B35">
         <v>8652</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43911</v>
       </c>
       <c r="B36">
         <v>8799</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43912</v>
       </c>
       <c r="B37">
         <v>8897</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43913</v>
       </c>
       <c r="B38">
         <v>8961</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43914</v>
       </c>
       <c r="B39">
         <v>9037</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43915</v>
       </c>
       <c r="B40">
         <v>9137</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43916</v>
       </c>
       <c r="B41">
         <v>9241</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43917</v>
       </c>
       <c r="B42">
         <v>9332</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43918</v>
       </c>
       <c r="B43">
         <v>9478</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43919</v>
       </c>
       <c r="B44">
         <v>9583</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43920</v>
       </c>
       <c r="B45">
         <v>9661</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43921</v>
       </c>
       <c r="B46">
         <v>9786</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43922</v>
       </c>
       <c r="B47">
         <v>9887</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43923</v>
       </c>
       <c r="B48">
         <v>9976</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43924</v>
       </c>
       <c r="B49">
         <v>10062</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43925</v>
       </c>
       <c r="B50">
         <v>10156</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43926</v>
       </c>
       <c r="B51">
         <v>10237</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43927</v>
       </c>
       <c r="B52">
         <v>10284</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43928</v>
       </c>
       <c r="B53">
         <v>10331</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43929</v>
       </c>
       <c r="B54">
         <v>10384</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43930</v>
       </c>
       <c r="B55">
         <v>10423</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43931</v>
       </c>
       <c r="B56">
         <v>10450</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43932</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43933</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43934</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43937</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43938</v>
       </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -913,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38532B1-D185-4FC3-9FDB-D1920E0F9EED}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
